--- a/biology/Botanique/Eau_de_rose/Eau_de_rose.xlsx
+++ b/biology/Botanique/Eau_de_rose/Eau_de_rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'eau de rose ou hydrolat de rose est un sous-produit (phase aqueuse) de la distillation de pétales de roses pour la fabrication d'huile essentielle de rose (ou essence de rose), possédant une saveur très parfumée et un parfum de rose concentré. L'eau de rose est aussi utilisée dans l'industrie cosmétique comme fragrance.
 			Rose de Damas utilisée pour fabriquer l'essence de rose
